--- a/sheets/LOC/COMBINED_RESULTS.xlsx
+++ b/sheets/LOC/COMBINED_RESULTS.xlsx
@@ -1,22 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bakalaura_darba\sheets\LOC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03210626-78BF-483F-A8B1-197E9728539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="276" yWindow="-84" windowWidth="23040" windowHeight="13644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ELECTRONJS" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TAURI" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="SUMMARY" sheetId="3" r:id="rId6"/>
+    <sheet name="ELECTRONJS" sheetId="1" r:id="rId1"/>
+    <sheet name="TAURI" sheetId="2" r:id="rId2"/>
+    <sheet name="SUMMARY" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">ELECTRONJS!$A$1:$M$49</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">TAURI!$A$1:$O$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ELECTRONJS!$A$1:$M$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TAURI!$A$1:$O$64</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="134">
   <si>
     <t>filename</t>
   </si>
@@ -423,34 +444,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -458,9 +487,27 @@
         <bgColor rgb="FFCDD9D4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
-    <border/>
+  <borders count="24">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
@@ -474,6 +521,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -488,6 +536,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -502,6 +551,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -516,6 +566,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -530,6 +581,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -544,6 +596,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -558,6 +611,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -572,6 +626,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -586,6 +641,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -600,6 +656,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -614,6 +671,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -628,288 +686,436 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF284E3F"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="medium">
         <color rgb="FFF6F8F9"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FFF6F8F9"/>
       </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF284E3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF284E3F"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="14">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCDD9D4"/>
+          <bgColor rgb="FFCDD9D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCDD9D4"/>
+          <bgColor rgb="FFCDD9D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF6F8F9"/>
           <bgColor rgb="FFF6F8F9"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCDD9D4"/>
-          <bgColor rgb="FFCDD9D4"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="4">
-    <tableStyle count="4" pivot="0" name="ELECTRONJS-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" type="totalRow"/>
+    <tableStyle name="ELECTRONJS-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="TAURI-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" type="totalRow"/>
+    <tableStyle name="TAURI-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="SUMMARY-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="SUMMARY-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="SUMMARY-style 2">
-      <tableStyleElement dxfId="2" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="SUMMARY-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6619875" cy="3819525"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M49" displayName="Table1" name="Table1" id="1">
-  <autoFilter ref="$A$1:$M$49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M49">
+  <autoFilter ref="A1:M49" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="JavaScript"/>
@@ -918,27 +1124,27 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn name="filename" id="1"/>
-    <tableColumn name="language" id="2"/>
-    <tableColumn name="YAML" id="3"/>
-    <tableColumn name="Ignore" id="4"/>
-    <tableColumn name="JSON" id="5"/>
-    <tableColumn name="HTML" id="6"/>
-    <tableColumn name="Markdown" id="7"/>
-    <tableColumn name="JavaScript" id="8"/>
-    <tableColumn name="JavaScript JSX" id="9"/>
-    <tableColumn name="PostCSS" id="10"/>
-    <tableColumn name="comment" id="11"/>
-    <tableColumn name="blank" id="12"/>
-    <tableColumn name="total" id="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="filename"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="language"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="YAML"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ignore"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JSON"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HTML"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Markdown"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="JavaScript"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="JavaScript JSX"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="PostCSS"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="comment"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="blank"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="total"/>
   </tableColumns>
-  <tableStyleInfo name="ELECTRONJS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ELECTRONJS-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O64" displayName="Table2" name="Table2" id="2">
-  <autoFilter ref="$A$1:$O$64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:O64">
+  <autoFilter ref="A1:O64" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="JavaScript JSX"/>
@@ -947,52 +1153,40 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn name="filename" id="1"/>
-    <tableColumn name="language" id="2"/>
-    <tableColumn name="JavaScript" id="3"/>
-    <tableColumn name="JSON" id="4"/>
-    <tableColumn name="Markdown" id="5"/>
-    <tableColumn name="HTML" id="6"/>
-    <tableColumn name="JavaScript JSX" id="7"/>
-    <tableColumn name="Properties" id="8"/>
-    <tableColumn name="PostCSS" id="9"/>
-    <tableColumn name="Rust" id="10"/>
-    <tableColumn name="TOML" id="11"/>
-    <tableColumn name="SQLite" id="12"/>
-    <tableColumn name="comment" id="13"/>
-    <tableColumn name="blank" id="14"/>
-    <tableColumn name="total" id="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="filename"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="language"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JavaScript"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="JSON"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Markdown"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="HTML"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="JavaScript JSX"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Properties"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PostCSS"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rust"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="TOML"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SQLite"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="comment"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="blank"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="total"/>
   </tableColumns>
-  <tableStyleInfo name="TAURI-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="TAURI-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D5" displayName="Table3" name="Table3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:D5">
   <tableColumns count="4">
-    <tableColumn name="FRAMEWORK_ID" id="1"/>
-    <tableColumn name="FILECOUNT" id="2"/>
-    <tableColumn name="PROGRAMMING_LANGUAGE" id="3"/>
-    <tableColumn name="LOC_COUNT" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="FRAMEWORK_ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="FILECOUNT"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="PROGRAMMING_LANGUAGE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="LOC_COUNT"/>
   </tableColumns>
-  <tableStyleInfo name="SUMMARY-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P9:S13" displayName="Table4" name="Table4" id="4">
-  <tableColumns count="4">
-    <tableColumn name="FRAMEWORK_ID" id="1"/>
-    <tableColumn name="FILECOUNT" id="2"/>
-    <tableColumn name="PROGRAMMING_LANGUAGE" id="3"/>
-    <tableColumn name="LOC_COUNT" id="4"/>
-  </tableColumns>
-  <tableStyleInfo name="SUMMARY-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="SUMMARY-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1182,26 +1376,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="81.0"/>
+    <col min="1" max="1" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1250,40 +1447,40 @@
         <v>3</v>
       </c>
       <c r="C2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="6">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="3" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -1291,40 +1488,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="9">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4" hidden="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1332,40 +1529,40 @@
         <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1373,40 +1570,40 @@
         <v>2</v>
       </c>
       <c r="C5" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="9">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6" hidden="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1414,40 +1611,40 @@
         <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1455,40 +1652,40 @@
         <v>7</v>
       </c>
       <c r="C7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="I7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="9">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1496,40 +1693,40 @@
         <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="6">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="9" hidden="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1537,40 +1734,40 @@
         <v>4</v>
       </c>
       <c r="C9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="9">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1578,40 +1775,40 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="I10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M10" s="6">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1619,40 +1816,40 @@
         <v>7</v>
       </c>
       <c r="C11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M11" s="9">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1660,40 +1857,40 @@
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="6">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1701,40 +1898,40 @@
         <v>7</v>
       </c>
       <c r="C13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="I13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M13" s="9">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1742,40 +1939,40 @@
         <v>7</v>
       </c>
       <c r="C14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="I14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M14" s="6">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1783,40 +1980,40 @@
         <v>7</v>
       </c>
       <c r="C15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="8">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="I15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M15" s="9">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1824,40 +2021,40 @@
         <v>7</v>
       </c>
       <c r="C16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="I16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M16" s="6">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -1865,40 +2062,40 @@
         <v>7</v>
       </c>
       <c r="C17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="8">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="L17" s="8">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="M17" s="9">
-        <v>325.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1906,40 +2103,40 @@
         <v>7</v>
       </c>
       <c r="C18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="I18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="L18" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="M18" s="6">
-        <v>515.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1947,40 +2144,40 @@
         <v>7</v>
       </c>
       <c r="C19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19" s="8">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="L19" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="M19" s="9">
-        <v>308.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1988,40 +2185,40 @@
         <v>7</v>
       </c>
       <c r="C20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="I20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="6">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
@@ -2029,40 +2226,40 @@
         <v>7</v>
       </c>
       <c r="C21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="8">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="I21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="L21" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="9">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -2070,40 +2267,40 @@
         <v>7</v>
       </c>
       <c r="C22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
@@ -2111,40 +2308,40 @@
         <v>7</v>
       </c>
       <c r="C23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="8">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="L23" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M23" s="9">
-        <v>379.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -2152,40 +2349,40 @@
         <v>7</v>
       </c>
       <c r="C24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="I24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L24" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M24" s="6">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
@@ -2193,40 +2390,40 @@
         <v>7</v>
       </c>
       <c r="C25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="9">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -2234,40 +2431,40 @@
         <v>7</v>
       </c>
       <c r="C26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="I26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
@@ -2275,40 +2472,40 @@
         <v>7</v>
       </c>
       <c r="C27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L27" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="9">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -2316,40 +2513,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="I28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
@@ -2357,40 +2554,40 @@
         <v>7</v>
       </c>
       <c r="C29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L29" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="9">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
@@ -2398,40 +2595,40 @@
         <v>7</v>
       </c>
       <c r="C30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="I30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -2439,40 +2636,40 @@
         <v>7</v>
       </c>
       <c r="C31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="9">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -2480,40 +2677,40 @@
         <v>7</v>
       </c>
       <c r="C32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H32" s="5">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="I32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K32" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L32" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M32" s="6">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="33" hidden="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
@@ -2521,40 +2718,40 @@
         <v>5</v>
       </c>
       <c r="C33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K33" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="9">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="34" hidden="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
@@ -2562,40 +2759,40 @@
         <v>8</v>
       </c>
       <c r="C34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="J34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M34" s="6">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="35" hidden="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
@@ -2603,40 +2800,40 @@
         <v>9</v>
       </c>
       <c r="C35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J35" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L35" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="9">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="36" hidden="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -2644,40 +2841,40 @@
         <v>8</v>
       </c>
       <c r="C36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="6">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="37" hidden="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -2685,40 +2882,40 @@
         <v>8</v>
       </c>
       <c r="C37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I37" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L37" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M37" s="9">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="38" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -2726,40 +2923,40 @@
         <v>8</v>
       </c>
       <c r="C38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="J38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M38" s="6">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="39" hidden="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -2767,40 +2964,40 @@
         <v>8</v>
       </c>
       <c r="C39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I39" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="J39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L39" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M39" s="9">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="40" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
@@ -2808,40 +3005,40 @@
         <v>8</v>
       </c>
       <c r="C40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="J40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="M40" s="6">
-        <v>232.0</v>
-      </c>
-    </row>
-    <row r="41" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -2849,40 +3046,40 @@
         <v>8</v>
       </c>
       <c r="C41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I41" s="8">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="J41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L41" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="M41" s="9">
-        <v>184.0</v>
-      </c>
-    </row>
-    <row r="42" hidden="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>53</v>
       </c>
@@ -2890,40 +3087,40 @@
         <v>8</v>
       </c>
       <c r="C42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I42" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L42" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M42" s="6">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="43" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -2931,40 +3128,40 @@
         <v>9</v>
       </c>
       <c r="C43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J43" s="8">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="K43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L43" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M43" s="9">
-        <v>102.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
@@ -2972,40 +3169,40 @@
         <v>7</v>
       </c>
       <c r="C44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H44" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="I44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K44" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L44" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M44" s="6">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="45" hidden="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>56</v>
       </c>
@@ -3013,40 +3210,40 @@
         <v>8</v>
       </c>
       <c r="C45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I45" s="8">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="J45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K45" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M45" s="9">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="46" hidden="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>57</v>
       </c>
@@ -3054,40 +3251,40 @@
         <v>8</v>
       </c>
       <c r="C46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I46" s="5">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="J46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M46" s="6">
-        <v>142.0</v>
-      </c>
-    </row>
-    <row r="47" hidden="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>58</v>
       </c>
@@ -3095,40 +3292,40 @@
         <v>8</v>
       </c>
       <c r="C47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I47" s="8">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="J47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L47" s="8">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="M47" s="9">
-        <v>194.0</v>
-      </c>
-    </row>
-    <row r="48" hidden="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>59</v>
       </c>
@@ -3136,40 +3333,40 @@
         <v>8</v>
       </c>
       <c r="C48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I48" s="5">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="J48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L48" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="M48" s="6">
-        <v>228.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>60</v>
       </c>
@@ -3177,40 +3374,40 @@
         <v>61</v>
       </c>
       <c r="C49" s="11">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="D49" s="11">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E49" s="11">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="F49" s="11">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G49" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H49" s="11">
-        <v>2054.0</v>
+        <v>2054</v>
       </c>
       <c r="I49" s="11">
-        <v>1227.0</v>
+        <v>1227</v>
       </c>
       <c r="J49" s="11">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="K49" s="11">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="L49" s="11">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="M49" s="12">
-        <v>4261.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -3226,30 +3423,31 @@
       <c r="M50" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="97.0"/>
+    <col min="1" max="1" width="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
@@ -3304,46 +3502,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
@@ -3351,46 +3549,46 @@
         <v>5</v>
       </c>
       <c r="C3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="9">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="4" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
@@ -3398,46 +3596,46 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="6">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="5" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
@@ -3445,46 +3643,46 @@
         <v>62</v>
       </c>
       <c r="C5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="9">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -3492,46 +3690,46 @@
         <v>64</v>
       </c>
       <c r="C6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O6" s="6">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="7" hidden="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -3539,46 +3737,46 @@
         <v>63</v>
       </c>
       <c r="C7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="9">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8" hidden="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>72</v>
       </c>
@@ -3586,46 +3784,46 @@
         <v>4</v>
       </c>
       <c r="C8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="6">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="9" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>73</v>
       </c>
@@ -3633,46 +3831,46 @@
         <v>4</v>
       </c>
       <c r="C9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="10" hidden="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>74</v>
       </c>
@@ -3680,46 +3878,46 @@
         <v>4</v>
       </c>
       <c r="C10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="6">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="11" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>75</v>
       </c>
@@ -3727,46 +3925,46 @@
         <v>4</v>
       </c>
       <c r="C11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="8">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="12" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
@@ -3774,46 +3972,46 @@
         <v>4</v>
       </c>
       <c r="C12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O12" s="6">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="13" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>77</v>
       </c>
@@ -3821,46 +4019,46 @@
         <v>65</v>
       </c>
       <c r="C13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="9">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="14" hidden="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
@@ -3868,46 +4066,46 @@
         <v>65</v>
       </c>
       <c r="C14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="M14" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O14" s="6">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="15" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
@@ -3915,46 +4113,46 @@
         <v>65</v>
       </c>
       <c r="C15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="9">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>80</v>
       </c>
@@ -3962,46 +4160,46 @@
         <v>65</v>
       </c>
       <c r="C16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>81</v>
       </c>
@@ -4009,46 +4207,46 @@
         <v>65</v>
       </c>
       <c r="C17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="9">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
@@ -4056,46 +4254,46 @@
         <v>65</v>
       </c>
       <c r="C18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O18" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -4103,46 +4301,46 @@
         <v>65</v>
       </c>
       <c r="C19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="9">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>84</v>
       </c>
@@ -4150,46 +4348,46 @@
         <v>65</v>
       </c>
       <c r="C20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O20" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>85</v>
       </c>
@@ -4197,46 +4395,46 @@
         <v>63</v>
       </c>
       <c r="C21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="8">
-        <v>1015.0</v>
+        <v>1015</v>
       </c>
       <c r="K21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21" s="8">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="N21" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O21" s="9">
-        <v>1248.0</v>
-      </c>
-    </row>
-    <row r="22" hidden="1">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -4244,46 +4442,46 @@
         <v>63</v>
       </c>
       <c r="C22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>87</v>
       </c>
@@ -4291,46 +4489,46 @@
         <v>63</v>
       </c>
       <c r="C23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="K23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O23" s="9">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="24" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>88</v>
       </c>
@@ -4338,46 +4536,46 @@
         <v>63</v>
       </c>
       <c r="C24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="K24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O24" s="6">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="25" hidden="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>89</v>
       </c>
@@ -4385,46 +4583,46 @@
         <v>63</v>
       </c>
       <c r="C25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="8">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="K25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N25" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O25" s="9">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="26" hidden="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
@@ -4432,46 +4630,46 @@
         <v>63</v>
       </c>
       <c r="C26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="6">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="27" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>91</v>
       </c>
@@ -4479,46 +4677,46 @@
         <v>63</v>
       </c>
       <c r="C27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="K27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L27" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M27" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N27" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O27" s="9">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="28" hidden="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>92</v>
       </c>
@@ -4526,46 +4724,46 @@
         <v>63</v>
       </c>
       <c r="C28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="K28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M28" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O28" s="6">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="29" hidden="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>93</v>
       </c>
@@ -4573,46 +4771,46 @@
         <v>63</v>
       </c>
       <c r="C29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J29" s="8">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="K29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L29" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M29" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="N29" s="8">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="O29" s="9">
-        <v>313.0</v>
-      </c>
-    </row>
-    <row r="30" hidden="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
@@ -4620,46 +4818,46 @@
         <v>63</v>
       </c>
       <c r="C30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="31" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>95</v>
       </c>
@@ -4667,46 +4865,46 @@
         <v>63</v>
       </c>
       <c r="C31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31" s="8">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="K31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M31" s="8">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="N31" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O31" s="9">
-        <v>255.0</v>
-      </c>
-    </row>
-    <row r="32" hidden="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>96</v>
       </c>
@@ -4714,46 +4912,46 @@
         <v>63</v>
       </c>
       <c r="C32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="33" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>97</v>
       </c>
@@ -4761,46 +4959,46 @@
         <v>63</v>
       </c>
       <c r="C33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J33" s="8">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="K33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M33" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N33" s="8">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O33" s="9">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="34" hidden="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
@@ -4808,46 +5006,46 @@
         <v>63</v>
       </c>
       <c r="C34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M34" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="6">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="35" hidden="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>99</v>
       </c>
@@ -4855,46 +5053,46 @@
         <v>63</v>
       </c>
       <c r="C35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J35" s="8">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O35" s="9">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="36" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>100</v>
       </c>
@@ -4902,46 +5100,46 @@
         <v>63</v>
       </c>
       <c r="C36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O36" s="6">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="37" hidden="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>101</v>
       </c>
@@ -4949,46 +5147,46 @@
         <v>63</v>
       </c>
       <c r="C37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J37" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L37" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M37" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O37" s="9">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="38" hidden="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>102</v>
       </c>
@@ -4996,46 +5194,46 @@
         <v>63</v>
       </c>
       <c r="C38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O38" s="6">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="39" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>103</v>
       </c>
@@ -5043,46 +5241,46 @@
         <v>63</v>
       </c>
       <c r="C39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J39" s="8">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O39" s="9">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="40" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
@@ -5090,46 +5288,46 @@
         <v>63</v>
       </c>
       <c r="C40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O40" s="6">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="41" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>105</v>
       </c>
@@ -5137,46 +5335,46 @@
         <v>63</v>
       </c>
       <c r="C41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J41" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M41" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O41" s="9">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="42" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>106</v>
       </c>
@@ -5184,46 +5382,46 @@
         <v>63</v>
       </c>
       <c r="C42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="K42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M42" s="5">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="N42" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="O42" s="6">
-        <v>924.0</v>
-      </c>
-    </row>
-    <row r="43" hidden="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>107</v>
       </c>
@@ -5231,46 +5429,46 @@
         <v>63</v>
       </c>
       <c r="C43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J43" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L43" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M43" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="9">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="44" hidden="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>108</v>
       </c>
@@ -5278,46 +5476,46 @@
         <v>63</v>
       </c>
       <c r="C44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="6">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="45" hidden="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>109</v>
       </c>
@@ -5325,46 +5523,46 @@
         <v>63</v>
       </c>
       <c r="C45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J45" s="8">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="K45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L45" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M45" s="8">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="N45" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O45" s="9">
-        <v>158.0</v>
-      </c>
-    </row>
-    <row r="46" hidden="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>110</v>
       </c>
@@ -5372,46 +5570,46 @@
         <v>63</v>
       </c>
       <c r="C46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>111</v>
       </c>
@@ -5419,46 +5617,46 @@
         <v>4</v>
       </c>
       <c r="C47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="8">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M47" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="9">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>112</v>
       </c>
@@ -5466,46 +5664,46 @@
         <v>8</v>
       </c>
       <c r="C48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G48" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M48" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O48" s="6">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="49" hidden="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>113</v>
       </c>
@@ -5513,46 +5711,46 @@
         <v>9</v>
       </c>
       <c r="C49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M49" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O49" s="9">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>114</v>
       </c>
@@ -5560,46 +5758,46 @@
         <v>8</v>
       </c>
       <c r="C50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G50" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O50" s="6">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>115</v>
       </c>
@@ -5607,46 +5805,46 @@
         <v>8</v>
       </c>
       <c r="C51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G51" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M51" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O51" s="9">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>116</v>
       </c>
@@ -5654,46 +5852,46 @@
         <v>8</v>
       </c>
       <c r="C52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G52" s="5">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="H52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="O52" s="6">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>117</v>
       </c>
@@ -5701,46 +5899,46 @@
         <v>8</v>
       </c>
       <c r="C53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G53" s="8">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="H53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M53" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O53" s="9">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>118</v>
       </c>
@@ -5748,46 +5946,46 @@
         <v>8</v>
       </c>
       <c r="C54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G54" s="5">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="H54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M54" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="O54" s="6">
-        <v>248.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>119</v>
       </c>
@@ -5795,46 +5993,46 @@
         <v>8</v>
       </c>
       <c r="C55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G55" s="8">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="H55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M55" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="O55" s="9">
-        <v>196.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
@@ -5842,46 +6040,46 @@
         <v>8</v>
       </c>
       <c r="C56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G56" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O56" s="6">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="57" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>121</v>
       </c>
@@ -5889,46 +6087,46 @@
         <v>9</v>
       </c>
       <c r="C57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I57" s="8">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="J57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M57" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="O57" s="9">
-        <v>102.0</v>
-      </c>
-    </row>
-    <row r="58" hidden="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>122</v>
       </c>
@@ -5936,46 +6134,46 @@
         <v>7</v>
       </c>
       <c r="C58" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O58" s="6">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>123</v>
       </c>
@@ -5983,46 +6181,46 @@
         <v>8</v>
       </c>
       <c r="C59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G59" s="8">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="H59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M59" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="O59" s="9">
-        <v>136.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
@@ -6030,46 +6228,46 @@
         <v>8</v>
       </c>
       <c r="C60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G60" s="5">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="H60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M60" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="O60" s="6">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>125</v>
       </c>
@@ -6077,46 +6275,46 @@
         <v>8</v>
       </c>
       <c r="C61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G61" s="8">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="H61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L61" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M61" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="O61" s="9">
-        <v>218.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -6124,46 +6322,46 @@
         <v>8</v>
       </c>
       <c r="C62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G62" s="5">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="H62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="O62" s="6">
-        <v>248.0</v>
-      </c>
-    </row>
-    <row r="63" hidden="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>127</v>
       </c>
@@ -6171,46 +6369,46 @@
         <v>7</v>
       </c>
       <c r="C63" s="8">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L63" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M63" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N63" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O63" s="9">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>60</v>
       </c>
@@ -6218,73 +6416,74 @@
         <v>61</v>
       </c>
       <c r="C64" s="11">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D64" s="11">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="E64" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F64" s="11">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G64" s="11">
-        <v>1332.0</v>
+        <v>1332</v>
       </c>
       <c r="H64" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="11">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="J64" s="11">
-        <v>2898.0</v>
+        <v>2898</v>
       </c>
       <c r="K64" s="11">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L64" s="11">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="M64" s="11">
-        <v>584.0</v>
+        <v>584</v>
       </c>
       <c r="N64" s="11">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="O64" s="12">
-        <v>5501.0</v>
+        <v>5501</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="2" width="14.25"/>
-    <col customWidth="1" min="3" max="3" width="27.0"/>
-    <col customWidth="1" min="4" max="4" width="14.88"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>128</v>
       </c>
@@ -6298,153 +6497,227 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="18">
-        <f>COUNTIF(Table1[language], "JavaScript")-COUNTA(ELECTRONJS!B44,ELECTRONJS!B7,ELECTRONJS!B8)</f>
+      <c r="B2" s="21">
         <v>23</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19">
-        <f>SUM(Table1[JavaScript])-ELECTRONJS!H44-ELECTRONJS!H7-ELECTRONJS!H8-79</f>
+      <c r="D2" s="23">
         <v>1895</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="21">
-        <f>COUNTIF(Table1[language], "JavaScript JSX")</f>
+      <c r="B3" s="25">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23">
-        <f>SUM(Table1[JavaScript JSX])</f>
+      <c r="D3" s="27">
         <v>1227</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="24">
-        <f>COUNTIF(Table2[language], "Rust")</f>
+      <c r="B4" s="29">
         <v>27</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="19">
-        <f>SUM(Table2[Rust])</f>
+      <c r="D4" s="31">
         <v>2898</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="26">
-        <f>COUNTIF(Table2[language], "JavaScript JSX")</f>
+      <c r="B5" s="33">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="28">
-        <f>SUM(Table2[JavaScript JSX])</f>
+      <c r="D5" s="35">
         <v>1332</v>
       </c>
     </row>
-    <row r="9">
-      <c r="P9" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="S9" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="P10" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="30">
-        <f>COUNTIF(Table1[language], "JavaScript")-COUNTA(ELECTRONJS!Q52,ELECTRONJS!Q15,ELECTRONJS!Q16)</f>
-        <v>26</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="31">
-        <f>SUM(Table1[JavaScript])-ELECTRONJS!W52-ELECTRONJS!W15-ELECTRONJS!W16-79</f>
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="P11" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q11" s="31">
-        <f>COUNTIF(Table1[language], "JavaScript JSX")</f>
-        <v>12</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" s="31">
-        <f>SUM(Table1[JavaScript JSX])</f>
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="P12" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" s="31">
-        <f>COUNTIF(Table2[language], "Rust")</f>
-        <v>27</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="31">
-        <f>SUM(Table2[Rust])</f>
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="P13" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="31">
-        <f>COUNTIF(Table2[language], "JavaScript JSX")</f>
-        <v>12</v>
-      </c>
-      <c r="R13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" s="31">
-        <f>SUM(Table2[JavaScript JSX])</f>
-        <v>1332</v>
-      </c>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O11" s="17"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="15:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>